--- a/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="K114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="L114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="M114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="N114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="O114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="P114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="Q114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="R114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="S114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="T114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="U114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="V114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="W114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="X114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="Y114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="Z114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AA114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AB114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AC114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AD114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AE114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AF114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AG114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AH114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AI114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AJ114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AK114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AL114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AM114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AN114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AO114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AP114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AR114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
       <c r="AS114" t="n">
-        <v>1905772.951</v>
+        <v>50.40808688</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="K100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="L100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="M100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="N100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="O100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="P100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="Q100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="R100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="S100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="T100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="U100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="V100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="W100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="X100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="Y100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="Z100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AA100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AB100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AC100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AD100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AE100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AF100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AG100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AH100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AI100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AJ100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AK100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AL100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AM100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AN100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AO100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AP100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AQ100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AR100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
       <c r="AS100" t="n">
-        <v>3066552.796</v>
+        <v>401896.5761</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="K101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="L101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="M101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="N101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="O101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="P101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="Q101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="R101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="S101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="T101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="U101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="V101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="W101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="X101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="Y101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="Z101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AA101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AB101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AC101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AD101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AE101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AF101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AG101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AH101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AI101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AJ101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AK101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AL101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AM101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AN101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AO101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AP101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AQ101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AR101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AS101" t="n">
-        <v>739178.966</v>
+        <v>73917.89659999999</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="K103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="L103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="M103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="N103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="O103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="P103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="Q103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="R103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="S103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="T103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="U103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="V103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="W103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="X103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="Y103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="Z103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AA103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AB103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AC103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AD103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AE103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AF103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AG103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AH103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AI103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AJ103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AK103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AL103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AM103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AN103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AO103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AP103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AQ103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AR103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
       <c r="AS103" t="n">
-        <v>13567.16244</v>
+        <v>13256.58684</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="K105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="L105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="M105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="N105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="O105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="P105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="Q105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="R105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="S105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="T105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="U105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="V105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="W105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="X105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="Y105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="Z105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AA105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AB105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AC105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AD105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AE105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AF105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AG105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AH105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AI105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AJ105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AK105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AL105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AM105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AN105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AO105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AP105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AQ105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AR105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
       <c r="AS105" t="n">
-        <v>115927.7962</v>
+        <v>30141.22701</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="K106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="L106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="M106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="N106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="O106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="P106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="Q106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="R106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="S106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="T106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="U106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="V106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="W106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="X106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="Y106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="Z106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AA106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AB106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AC106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AD106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AE106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AF106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AG106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AH106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AI106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AJ106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AK106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AL106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AM106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AN106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AO106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AP106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AQ106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AR106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
       <c r="AS106" t="n">
-        <v>843848.6242</v>
+        <v>95984.02122</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="K107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="L107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="M107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="N107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="O107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="P107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="Q107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="R107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="S107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="T107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="U107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="V107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="W107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="X107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="Y107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="Z107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AA107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AB107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AC107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AD107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AE107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AF107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AG107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AH107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AI107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AJ107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AK107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AL107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AM107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AN107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AO107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AP107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AQ107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AR107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
       <c r="AS107" t="n">
-        <v>107549.7018</v>
+        <v>215099.4036</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="K115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="L115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="M115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="N115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="O115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="P115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="Q115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="R115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="S115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="T115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="U115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="V115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="W115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="X115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="Y115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="Z115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AA115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AB115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AC115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AD115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AE115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AF115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AG115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AH115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AI115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AK115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AL115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AM115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AN115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AO115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AP115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AR115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1430540.76</v>
+        <v>14305407.6</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="K100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="L100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="M100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="N100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="O100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="P100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="Q100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="R100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="S100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="T100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="U100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="V100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="W100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="X100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="Y100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="Z100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AA100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AB100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AC100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AD100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AE100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AF100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AG100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AH100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AI100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AJ100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AK100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AL100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AM100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AN100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AO100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AP100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AQ100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AR100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
       <c r="AS100">
-        <v>1940685.001</v>
+        <v>401896.5761</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="K101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="L101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="M101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="N101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="O101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="P101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="Q101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="R101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="S101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="T101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="U101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="V101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="W101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="X101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="Y101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="Z101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AA101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AB101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AC101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AD101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AE101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AF101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AG101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AH101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AI101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AJ101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AK101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AL101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AM101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AN101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AO101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AP101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AQ101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AR101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
       <c r="AS101">
-        <v>67459.69297</v>
+        <v>73917.89659999999</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="K102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="L102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="M102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="N102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="O102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="P102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="Q102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="R102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="S102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="T102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="U102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="V102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="W102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="X102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="Y102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="Z102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AA102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AB102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AC102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AD102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AE102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AF102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AG102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AH102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AI102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AJ102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AK102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AL102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AM102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AN102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AO102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AP102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AQ102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AR102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
       <c r="AS102">
-        <v>92237.87583999999</v>
+        <v>872582.0111</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="K103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="L103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="M103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="N103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="O103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="P103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="Q103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="R103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="S103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="T103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="U103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="V103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="W103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="X103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="Y103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="Z103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AA103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AB103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AC103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AD103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AE103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AF103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AG103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AH103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AI103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AJ103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AK103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AL103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AM103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AN103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AO103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AP103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AQ103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AR103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
       <c r="AS103">
-        <v>4371.977789</v>
+        <v>13256.58684</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="K104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="L104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="M104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="N104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="O104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="P104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="Q104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="R104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="S104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="T104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="U104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="V104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="W104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="X104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="Y104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="Z104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AA104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AB104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AC104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AD104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AE104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AF104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AG104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AH104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AI104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AJ104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AK104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AL104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AM104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AN104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AO104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AP104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AQ104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AR104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
       <c r="AS104">
-        <v>582.554497</v>
+        <v>309151.2124</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="K105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="L105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="M105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="N105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="O105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="P105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="Q105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="R105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="S105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="T105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="U105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="V105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="W105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="X105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="Y105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="Z105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AA105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AB105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AC105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AD105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AE105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AF105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AG105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AH105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AI105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AJ105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AK105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AL105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AM105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AN105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AO105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AP105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AQ105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AR105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
       <c r="AS105">
-        <v>400646.3437</v>
+        <v>30141.22701</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="K106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="L106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="M106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="N106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="O106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="P106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="Q106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="R106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="S106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="T106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="U106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="V106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="W106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="X106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="Y106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="Z106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AA106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AB106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AC106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AD106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AE106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AF106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AG106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AH106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AI106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AJ106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AK106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AL106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AM106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AN106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AO106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AP106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AQ106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AR106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
       <c r="AS106">
-        <v>271897.1817</v>
+        <v>95984.02122</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="K107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="L107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="M107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="N107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="O107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="P107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="Q107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="R107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="S107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="T107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="U107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="V107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="W107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="X107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="Y107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="Z107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AA107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AB107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AC107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AD107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AE107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AF107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AG107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AH107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AI107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AJ107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AK107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AL107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AM107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AN107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AO107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AP107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AQ107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AR107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
       <c r="AS107">
-        <v>104605.1465</v>
+        <v>215099.4036</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="K114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="L114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="M114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="N114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="O114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="P114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="Q114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="R114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="S114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="T114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="U114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="V114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="W114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="X114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="Y114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="Z114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AA114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AB114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AC114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AD114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AE114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AF114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AG114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AH114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AI114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AJ114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AK114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AL114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AM114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AN114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AO114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AP114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AQ114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AR114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
       <c r="AS114">
-        <v>2122.629376</v>
+        <v>50.40808688</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="K115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="L115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="M115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="N115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="O115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="P115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="Q115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="R115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="S115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="T115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="U115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="V115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="W115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="X115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="Y115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="Z115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AA115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AB115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AC115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AD115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AE115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AF115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AG115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AH115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AI115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AJ115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AK115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AL115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AM115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AN115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AO115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AP115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AQ115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AR115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
       <c r="AS115">
-        <v>137443.9299</v>
+        <v>14305407.6</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ip_calibrated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
   <si>
     <t>subsector</t>
   </si>
@@ -495,6 +495,9 @@
   <si>
     <t>vol_ippu_wood_m3_ww_per_tonne_production</t>
   </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,112 +1255,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.041451055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1377,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.004958155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1499,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.044152564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1621,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.064185255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1743,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.977031529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1865,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.998286211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1987,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.982194535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2231,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.9767598280000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2353,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.032076076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2475,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.991509207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2597,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.977261793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3329,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.01265825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3451,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.043690934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12479,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>1940685.001</v>
+        <v>2022614.15389004</v>
       </c>
       <c r="K96">
-        <v>1940685.001</v>
+        <v>1961197.29578383</v>
       </c>
       <c r="L96">
-        <v>1940685.001</v>
+        <v>2266125.4043327</v>
       </c>
       <c r="M96">
-        <v>1940685.001</v>
+        <v>1859874.95963218</v>
       </c>
       <c r="N96">
-        <v>1940685.001</v>
+        <v>2140274.80148584</v>
       </c>
       <c r="O96">
-        <v>1940685.001</v>
+        <v>1940685.00138495</v>
       </c>
       <c r="P96">
-        <v>1940685.001</v>
+        <v>1940685</v>
       </c>
       <c r="Q96">
-        <v>1940685.001</v>
+        <v>2244135.02199179</v>
       </c>
       <c r="R96">
-        <v>1940685.001</v>
+        <v>2595033.19545938</v>
       </c>
       <c r="S96">
-        <v>1940685.001</v>
+        <v>3000798.62376515</v>
       </c>
       <c r="T96">
-        <v>1940685.001</v>
+        <v>3470010.47853522</v>
       </c>
       <c r="U96">
-        <v>1940685.001</v>
+        <v>4012589.39063237</v>
       </c>
       <c r="V96">
-        <v>1940685.001</v>
+        <v>4640007.20384338</v>
       </c>
       <c r="W96">
-        <v>1940685.001</v>
+        <v>5365529.5261411</v>
       </c>
       <c r="X96">
-        <v>1940685.001</v>
+        <v>6204496.20682607</v>
       </c>
       <c r="Y96">
-        <v>1940685.001</v>
+        <v>7174645.66972672</v>
       </c>
       <c r="Z96">
-        <v>1940685.001</v>
+        <v>8296489.95989327</v>
       </c>
       <c r="AA96">
-        <v>1940685.001</v>
+        <v>9593748.433465371</v>
       </c>
       <c r="AB96">
-        <v>1940685.001</v>
+        <v>11093849.2602965</v>
       </c>
       <c r="AC96">
-        <v>1940685.001</v>
+        <v>12828509.3426955</v>
       </c>
       <c r="AD96">
-        <v>1940685.001</v>
+        <v>14834404.9116121</v>
       </c>
       <c r="AE96">
-        <v>1940685.001</v>
+        <v>17153946.9788017</v>
       </c>
       <c r="AF96">
-        <v>1940685.001</v>
+        <v>19836178.0404955</v>
       </c>
       <c r="AG96">
-        <v>1940685.001</v>
+        <v>22937808.9917429</v>
       </c>
       <c r="AH96">
-        <v>1940685.001</v>
+        <v>26524418.175092</v>
       </c>
       <c r="AI96">
-        <v>1940685.001</v>
+        <v>30671837.9153131</v>
       </c>
       <c r="AJ96">
-        <v>1940685.001</v>
+        <v>35467757.8559167</v>
       </c>
       <c r="AK96">
-        <v>1940685.001</v>
+        <v>41013578.9971001</v>
       </c>
       <c r="AL96">
-        <v>1940685.001</v>
+        <v>47426557.6353809</v>
       </c>
       <c r="AM96">
-        <v>1940685.001</v>
+        <v>54842284.5346207</v>
       </c>
       <c r="AN96">
-        <v>1940685.001</v>
+        <v>63417551.7459974</v>
       </c>
       <c r="AO96">
-        <v>1940685.001</v>
+        <v>73333667.6906192</v>
       </c>
       <c r="AP96">
-        <v>1940685.001</v>
+        <v>84800290.5961691</v>
       </c>
       <c r="AQ96">
-        <v>1940685.001</v>
+        <v>98059861.3386222</v>
       </c>
       <c r="AR96">
-        <v>1940685.001</v>
+        <v>113392729.413409</v>
       </c>
       <c r="AS96">
-        <v>1940685.001</v>
+        <v>131123080.415353</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12601,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>67459.69297</v>
+        <v>56417.7103924661</v>
       </c>
       <c r="K97">
-        <v>67459.69297</v>
+        <v>59928.5924726295</v>
       </c>
       <c r="L97">
-        <v>67459.69297</v>
+        <v>62328.1713375157</v>
       </c>
       <c r="M97">
-        <v>67459.69297</v>
+        <v>52673.9304765382</v>
       </c>
       <c r="N97">
-        <v>67459.69297</v>
+        <v>59796.3725708556</v>
       </c>
       <c r="O97">
-        <v>67459.69297</v>
+        <v>67459.6929665381</v>
       </c>
       <c r="P97">
-        <v>67459.69297</v>
+        <v>67459.69</v>
       </c>
       <c r="Q97">
-        <v>67459.69297</v>
+        <v>71454.0035962515</v>
       </c>
       <c r="R97">
-        <v>67459.69297</v>
+        <v>75684.8220016001</v>
       </c>
       <c r="S97">
-        <v>67459.69297</v>
+        <v>80166.148754671</v>
       </c>
       <c r="T97">
-        <v>67459.69297</v>
+        <v>84912.8165488737</v>
       </c>
       <c r="U97">
-        <v>67459.69297</v>
+        <v>89940.536326969</v>
       </c>
       <c r="V97">
-        <v>67459.69297</v>
+        <v>95265.94928254239</v>
       </c>
       <c r="W97">
-        <v>67459.69297</v>
+        <v>100906.681940505</v>
       </c>
       <c r="X97">
-        <v>67459.69297</v>
+        <v>106881.404498934</v>
       </c>
       <c r="Y97">
-        <v>67459.69297</v>
+        <v>113209.892625348</v>
       </c>
       <c r="Z97">
-        <v>67459.69297</v>
+        <v>119913.092911972</v>
       </c>
       <c r="AA97">
-        <v>67459.69297</v>
+        <v>127013.19220663</v>
       </c>
       <c r="AB97">
-        <v>67459.69297</v>
+        <v>134533.691048742</v>
       </c>
       <c r="AC97">
-        <v>67459.69297</v>
+        <v>142499.4814535</v>
       </c>
       <c r="AD97">
-        <v>67459.69297</v>
+        <v>150936.929301666</v>
       </c>
       <c r="AE97">
-        <v>67459.69297</v>
+        <v>159873.961607716</v>
       </c>
       <c r="AF97">
-        <v>67459.69297</v>
+        <v>169340.158955144</v>
       </c>
       <c r="AG97">
-        <v>67459.69297</v>
+        <v>179366.85340491</v>
       </c>
       <c r="AH97">
-        <v>67459.69297</v>
+        <v>189987.232201078</v>
       </c>
       <c r="AI97">
-        <v>67459.69297</v>
+        <v>201236.447616905</v>
       </c>
       <c r="AJ97">
-        <v>67459.69297</v>
+        <v>213151.733304959</v>
       </c>
       <c r="AK97">
-        <v>67459.69297</v>
+        <v>225772.527536367</v>
       </c>
       <c r="AL97">
-        <v>67459.69297</v>
+        <v>239140.603737112</v>
       </c>
       <c r="AM97">
-        <v>67459.69297</v>
+        <v>253300.208753425</v>
       </c>
       <c r="AN97">
-        <v>67459.69297</v>
+        <v>268298.209303933</v>
       </c>
       <c r="AO97">
-        <v>67459.69297</v>
+        <v>284184.247103286</v>
       </c>
       <c r="AP97">
-        <v>67459.69297</v>
+        <v>301010.903170712</v>
       </c>
       <c r="AQ97">
-        <v>67459.69297</v>
+        <v>318833.871867347</v>
       </c>
       <c r="AR97">
-        <v>67459.69297</v>
+        <v>337712.145238382</v>
       </c>
       <c r="AS97">
-        <v>67459.69297</v>
+        <v>357708.208270171</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12723,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>92237.87583999999</v>
+        <v>101881.150923917</v>
       </c>
       <c r="K98">
-        <v>92237.87583999999</v>
+        <v>92683.8919094084</v>
       </c>
       <c r="L98">
-        <v>92237.87583999999</v>
+        <v>89260.1711158246</v>
       </c>
       <c r="M98">
-        <v>92237.87583999999</v>
+        <v>91125.5823798098</v>
       </c>
       <c r="N98">
-        <v>92237.87583999999</v>
+        <v>90115.99773870069</v>
       </c>
       <c r="O98">
-        <v>92237.87583999999</v>
+        <v>92237.8758416919</v>
       </c>
       <c r="P98">
-        <v>92237.87583999999</v>
+        <v>92237.88</v>
       </c>
       <c r="Q98">
-        <v>92237.87583999999</v>
+        <v>97297.0315138912</v>
       </c>
       <c r="R98">
-        <v>92237.87583999999</v>
+        <v>102633.672211624</v>
       </c>
       <c r="S98">
-        <v>92237.87583999999</v>
+        <v>108263.022085512</v>
       </c>
       <c r="T98">
-        <v>92237.87583999999</v>
+        <v>114201.13592857</v>
       </c>
       <c r="U98">
-        <v>92237.87583999999</v>
+        <v>120464.949122467</v>
       </c>
       <c r="V98">
-        <v>92237.87583999999</v>
+        <v>127072.325936893</v>
       </c>
       <c r="W98">
-        <v>92237.87583999999</v>
+        <v>134042.110478095</v>
       </c>
       <c r="X98">
-        <v>92237.87583999999</v>
+        <v>141394.180431897</v>
       </c>
       <c r="Y98">
-        <v>92237.87583999999</v>
+        <v>149149.503754457</v>
       </c>
       <c r="Z98">
-        <v>92237.87583999999</v>
+        <v>157330.198472456</v>
       </c>
       <c r="AA98">
-        <v>92237.87583999999</v>
+        <v>165959.595763274</v>
       </c>
       <c r="AB98">
-        <v>92237.87583999999</v>
+        <v>175062.306495031</v>
       </c>
       <c r="AC98">
-        <v>92237.87583999999</v>
+        <v>184664.291416298</v>
       </c>
       <c r="AD98">
-        <v>92237.87583999999</v>
+        <v>194792.935195625</v>
       </c>
       <c r="AE98">
-        <v>92237.87583999999</v>
+        <v>205477.124522074</v>
       </c>
       <c r="AF98">
-        <v>92237.87583999999</v>
+        <v>216747.330489469</v>
       </c>
       <c r="AG98">
-        <v>92237.87583999999</v>
+        <v>228635.695499351</v>
       </c>
       <c r="AH98">
-        <v>92237.87583999999</v>
+        <v>241176.12493046</v>
       </c>
       <c r="AI98">
-        <v>92237.87583999999</v>
+        <v>254404.383836197</v>
       </c>
       <c r="AJ98">
-        <v>92237.87583999999</v>
+        <v>268358.19894584</v>
       </c>
       <c r="AK98">
-        <v>92237.87583999999</v>
+        <v>283077.366260418</v>
       </c>
       <c r="AL98">
-        <v>92237.87583999999</v>
+        <v>298603.864550109</v>
       </c>
       <c r="AM98">
-        <v>92237.87583999999</v>
+        <v>314981.975076851</v>
       </c>
       <c r="AN98">
-        <v>92237.87583999999</v>
+        <v>332258.407883617</v>
       </c>
       <c r="AO98">
-        <v>92237.87583999999</v>
+        <v>350482.435010514</v>
       </c>
       <c r="AP98">
-        <v>92237.87583999999</v>
+        <v>369706.031017661</v>
       </c>
       <c r="AQ98">
-        <v>92237.87583999999</v>
+        <v>389984.021215589</v>
       </c>
       <c r="AR98">
-        <v>92237.87583999999</v>
+        <v>411374.23802593</v>
       </c>
       <c r="AS98">
-        <v>92237.87583999999</v>
+        <v>433937.685918322</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12845,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>4371.977789</v>
+        <v>4664.11736064897</v>
       </c>
       <c r="K99">
-        <v>4371.977789</v>
+        <v>4689.74858639489</v>
       </c>
       <c r="L99">
-        <v>4371.977789</v>
+        <v>4863.14365503149</v>
       </c>
       <c r="M99">
-        <v>4371.977789</v>
+        <v>4541.08735074789</v>
       </c>
       <c r="N99">
-        <v>4371.977789</v>
+        <v>4658.74966350976</v>
       </c>
       <c r="O99">
-        <v>4371.977789</v>
+        <v>4371.97778857709</v>
       </c>
       <c r="P99">
-        <v>4371.977789</v>
+        <v>4371.978</v>
       </c>
       <c r="Q99">
-        <v>4371.977789</v>
+        <v>4568.08699485427</v>
       </c>
       <c r="R99">
-        <v>4371.977789</v>
+        <v>4772.99263458249</v>
       </c>
       <c r="S99">
-        <v>4371.977789</v>
+        <v>4987.08950058108</v>
       </c>
       <c r="T99">
-        <v>4371.977789</v>
+        <v>5210.78987354892</v>
       </c>
       <c r="U99">
-        <v>4371.977789</v>
+        <v>5444.52452740548</v>
       </c>
       <c r="V99">
-        <v>4371.977789</v>
+        <v>5688.74355882075</v>
       </c>
       <c r="W99">
-        <v>4371.977789</v>
+        <v>5943.91725395463</v>
       </c>
       <c r="X99">
-        <v>4371.977789</v>
+        <v>6210.53699407454</v>
       </c>
       <c r="Y99">
-        <v>4371.977789</v>
+        <v>6489.11620179543</v>
       </c>
       <c r="Z99">
-        <v>4371.977789</v>
+        <v>6780.1913297642</v>
       </c>
       <c r="AA99">
-        <v>4371.977789</v>
+        <v>7084.3228936924</v>
       </c>
       <c r="AB99">
-        <v>4371.977789</v>
+        <v>7402.0965517266</v>
       </c>
       <c r="AC99">
-        <v>4371.977789</v>
+        <v>7734.12423223491</v>
       </c>
       <c r="AD99">
-        <v>4371.977789</v>
+        <v>8081.04531218124</v>
       </c>
       <c r="AE99">
-        <v>4371.977789</v>
+        <v>8443.527848356771</v>
       </c>
       <c r="AF99">
-        <v>4371.977789</v>
+        <v>8822.269863839299</v>
       </c>
       <c r="AG99">
-        <v>4371.977789</v>
+        <v>9218.000692157881</v>
       </c>
       <c r="AH99">
-        <v>4371.977789</v>
+        <v>9631.482381751241</v>
       </c>
       <c r="AI99">
-        <v>4371.977789</v>
+        <v>10063.5111634244</v>
       </c>
       <c r="AJ99">
-        <v>4371.977789</v>
+        <v>10514.9189836293</v>
       </c>
       <c r="AK99">
-        <v>4371.977789</v>
+        <v>10986.5751065223</v>
       </c>
       <c r="AL99">
-        <v>4371.977789</v>
+        <v>11479.3877878832</v>
       </c>
       <c r="AM99">
-        <v>4371.977789</v>
+        <v>11994.3060241196</v>
       </c>
       <c r="AN99">
-        <v>4371.977789</v>
+        <v>12532.321379724</v>
       </c>
       <c r="AO99">
-        <v>4371.977789</v>
+        <v>13094.4698967038</v>
       </c>
       <c r="AP99">
-        <v>4371.977789</v>
+        <v>13681.8340896599</v>
       </c>
       <c r="AQ99">
-        <v>4371.977789</v>
+        <v>14295.5450303568</v>
       </c>
       <c r="AR99">
-        <v>4371.977789</v>
+        <v>14936.7845257973</v>
       </c>
       <c r="AS99">
-        <v>4371.977789</v>
+        <v>15606.7873939977</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12967,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>582.554497</v>
+        <v>6864.61838711398</v>
       </c>
       <c r="K100">
-        <v>582.554497</v>
+        <v>3596.74954423003</v>
       </c>
       <c r="L100">
-        <v>582.554497</v>
+        <v>7731.38446472809</v>
       </c>
       <c r="M100">
-        <v>582.554497</v>
+        <v>2059.06907675324</v>
       </c>
       <c r="N100">
-        <v>582.554497</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>582.554497</v>
+        <v>582.554496979977</v>
       </c>
       <c r="P100">
-        <v>582.554497</v>
-      </c>
-      <c r="Q100">
-        <v>582.554497</v>
-      </c>
-      <c r="R100">
-        <v>582.554497</v>
-      </c>
-      <c r="S100">
-        <v>582.554497</v>
-      </c>
-      <c r="T100">
-        <v>582.554497</v>
-      </c>
-      <c r="U100">
-        <v>582.554497</v>
-      </c>
-      <c r="V100">
-        <v>582.554497</v>
-      </c>
-      <c r="W100">
-        <v>582.554497</v>
-      </c>
-      <c r="X100">
-        <v>582.554497</v>
-      </c>
-      <c r="Y100">
-        <v>582.554497</v>
-      </c>
-      <c r="Z100">
-        <v>582.554497</v>
-      </c>
-      <c r="AA100">
-        <v>582.554497</v>
-      </c>
-      <c r="AB100">
-        <v>582.554497</v>
-      </c>
-      <c r="AC100">
-        <v>582.554497</v>
-      </c>
-      <c r="AD100">
-        <v>582.554497</v>
-      </c>
-      <c r="AE100">
-        <v>582.554497</v>
-      </c>
-      <c r="AF100">
-        <v>582.554497</v>
-      </c>
-      <c r="AG100">
-        <v>582.554497</v>
-      </c>
-      <c r="AH100">
-        <v>582.554497</v>
-      </c>
-      <c r="AI100">
-        <v>582.554497</v>
-      </c>
-      <c r="AJ100">
-        <v>582.554497</v>
-      </c>
-      <c r="AK100">
-        <v>582.554497</v>
-      </c>
-      <c r="AL100">
-        <v>582.554497</v>
-      </c>
-      <c r="AM100">
-        <v>582.554497</v>
-      </c>
-      <c r="AN100">
-        <v>582.554497</v>
-      </c>
-      <c r="AO100">
-        <v>582.554497</v>
-      </c>
-      <c r="AP100">
-        <v>582.554497</v>
-      </c>
-      <c r="AQ100">
-        <v>582.554497</v>
-      </c>
-      <c r="AR100">
-        <v>582.554497</v>
-      </c>
-      <c r="AS100">
-        <v>582.554497</v>
+        <v>582.5545</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>160</v>
+      </c>
+      <c r="R100" t="s">
+        <v>160</v>
+      </c>
+      <c r="S100" t="s">
+        <v>160</v>
+      </c>
+      <c r="T100" t="s">
+        <v>160</v>
+      </c>
+      <c r="U100" t="s">
+        <v>160</v>
+      </c>
+      <c r="V100" t="s">
+        <v>160</v>
+      </c>
+      <c r="W100" t="s">
+        <v>160</v>
+      </c>
+      <c r="X100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13089,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>400646.3437</v>
+        <v>304506.612609075</v>
       </c>
       <c r="K101">
-        <v>400646.3437</v>
+        <v>298123.515218177</v>
       </c>
       <c r="L101">
-        <v>400646.3437</v>
+        <v>357153.828129358</v>
       </c>
       <c r="M101">
-        <v>400646.3437</v>
+        <v>344920.677104532</v>
       </c>
       <c r="N101">
-        <v>400646.3437</v>
+        <v>376706.052215824</v>
       </c>
       <c r="O101">
-        <v>400646.3437</v>
+        <v>400646.343674031</v>
       </c>
       <c r="P101">
-        <v>400646.3437</v>
+        <v>400646.3</v>
       </c>
       <c r="Q101">
-        <v>400646.3437</v>
+        <v>439064.28452445</v>
       </c>
       <c r="R101">
-        <v>400646.3437</v>
+        <v>481166.170622235</v>
       </c>
       <c r="S101">
-        <v>400646.3437</v>
+        <v>527305.207714688</v>
       </c>
       <c r="T101">
-        <v>400646.3437</v>
+        <v>577868.51831969</v>
       </c>
       <c r="U101">
-        <v>400646.3437</v>
+        <v>633280.346143815</v>
       </c>
       <c r="V101">
-        <v>400646.3437</v>
+        <v>694005.6156341149</v>
       </c>
       <c r="W101">
-        <v>400646.3437</v>
+        <v>760553.832855422</v>
       </c>
       <c r="X101">
-        <v>400646.3437</v>
+        <v>833483.360422882</v>
       </c>
       <c r="Y101">
-        <v>400646.3437</v>
+        <v>913406.102357883</v>
       </c>
       <c r="Z101">
-        <v>400646.3437</v>
+        <v>1000992.63817495</v>
       </c>
       <c r="AA101">
-        <v>400646.3437</v>
+        <v>1096977.84927634</v>
       </c>
       <c r="AB101">
-        <v>400646.3437</v>
+        <v>1202167.08486185</v>
       </c>
       <c r="AC101">
-        <v>400646.3437</v>
+        <v>1317442.91908777</v>
       </c>
       <c r="AD101">
-        <v>400646.3437</v>
+        <v>1443772.55617005</v>
       </c>
       <c r="AE101">
-        <v>400646.3437</v>
+        <v>1582215.94556306</v>
       </c>
       <c r="AF101">
-        <v>400646.3437</v>
+        <v>1733934.67530293</v>
       </c>
       <c r="AG101">
-        <v>400646.3437</v>
+        <v>1900201.71813396</v>
       </c>
       <c r="AH101">
-        <v>400646.3437</v>
+        <v>2082412.11219128</v>
       </c>
       <c r="AI101">
-        <v>400646.3437</v>
+        <v>2282094.66585442</v>
       </c>
       <c r="AJ101">
-        <v>400646.3437</v>
+        <v>2500924.78497976</v>
       </c>
       <c r="AK101">
-        <v>400646.3437</v>
+        <v>2740738.53013644</v>
       </c>
       <c r="AL101">
-        <v>400646.3437</v>
+        <v>3003548.02179116</v>
       </c>
       <c r="AM101">
-        <v>400646.3437</v>
+        <v>3291558.32269651</v>
       </c>
       <c r="AN101">
-        <v>400646.3437</v>
+        <v>3607185.93913196</v>
       </c>
       <c r="AO101">
-        <v>400646.3437</v>
+        <v>3953079.09622934</v>
       </c>
       <c r="AP101">
-        <v>400646.3437</v>
+        <v>4332139.95749991</v>
       </c>
       <c r="AQ101">
-        <v>400646.3437</v>
+        <v>4747548.97499235</v>
       </c>
       <c r="AR101">
-        <v>400646.3437</v>
+        <v>5202791.57438819</v>
       </c>
       <c r="AS101">
-        <v>400646.3437</v>
+        <v>5701687.39893165</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13211,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>1537734.41452054</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>861126.541750376</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>718033.440585372</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>2132502.00478701</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>1486029.32223597</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>885789.9586552751</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>885790</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>924648.9620019851</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>965212.638358243</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>1007555.81364561</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>1051756.55318584</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>1097896.34696945</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>1146060.25989351</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>1196337.08859014</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>1248819.52513502</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>1303604.32793767</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>1360792.50012854</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>1420489.47577184</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>1482805.31424737</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>1547854.90315973</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>1615758.17014905</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>1686640.30399366</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>1760631.9854124</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>1837869.62799204</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>1918495.62968403</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>2002658.6353342</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>2090513.8107295</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>2182223.12866689</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>2277955.66757196</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>2377887.92321764</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>2482204.13411784</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>2591096.62119588</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>2704766.14235386</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>2823422.26259678</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>2947283.74039379</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>3076578.93098866</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13333,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>271897.1817</v>
+        <v>349108.005700727</v>
       </c>
       <c r="K103">
-        <v>271897.1817</v>
+        <v>368428.288937285</v>
       </c>
       <c r="L103">
-        <v>271897.1817</v>
+        <v>378473.780809437</v>
       </c>
       <c r="M103">
-        <v>271897.1817</v>
+        <v>344911.216712456</v>
       </c>
       <c r="N103">
-        <v>271897.1817</v>
+        <v>291565.779542445</v>
       </c>
       <c r="O103">
-        <v>271897.1817</v>
+        <v>271897.181689769</v>
       </c>
       <c r="P103">
-        <v>271897.1817</v>
+        <v>271897.2</v>
       </c>
       <c r="Q103">
-        <v>271897.1817</v>
+        <v>281429.3040633</v>
       </c>
       <c r="R103">
-        <v>271897.1817</v>
+        <v>291295.582247825</v>
       </c>
       <c r="S103">
-        <v>271897.1817</v>
+        <v>301507.749946374</v>
       </c>
       <c r="T103">
-        <v>271897.1817</v>
+        <v>312077.933267056</v>
       </c>
       <c r="U103">
-        <v>271897.1817</v>
+        <v>323018.683432049</v>
       </c>
       <c r="V103">
-        <v>271897.1817</v>
+        <v>334342.991681139</v>
       </c>
       <c r="W103">
-        <v>271897.1817</v>
+        <v>346064.304697749</v>
       </c>
       <c r="X103">
-        <v>271897.1817</v>
+        <v>358196.540575766</v>
       </c>
       <c r="Y103">
-        <v>271897.1817</v>
+        <v>370754.105346136</v>
       </c>
       <c r="Z103">
-        <v>271897.1817</v>
+        <v>383751.910082835</v>
       </c>
       <c r="AA103">
-        <v>271897.1817</v>
+        <v>397205.388608542</v>
       </c>
       <c r="AB103">
-        <v>271897.1817</v>
+        <v>411130.515821033</v>
       </c>
       <c r="AC103">
-        <v>271897.1817</v>
+        <v>425543.826662057</v>
       </c>
       <c r="AD103">
-        <v>271897.1817</v>
+        <v>440462.435751219</v>
       </c>
       <c r="AE103">
-        <v>271897.1817</v>
+        <v>455904.057708176</v>
       </c>
       <c r="AF103">
-        <v>271897.1817</v>
+        <v>471887.028187295</v>
       </c>
       <c r="AG103">
-        <v>271897.1817</v>
+        <v>488430.325649728</v>
       </c>
       <c r="AH103">
-        <v>271897.1817</v>
+        <v>505553.593898775</v>
       </c>
       <c r="AI103">
-        <v>271897.1817</v>
+        <v>523277.16540528</v>
       </c>
       <c r="AJ103">
-        <v>271897.1817</v>
+        <v>541622.085450767</v>
       </c>
       <c r="AK103">
-        <v>271897.1817</v>
+        <v>560610.137116979</v>
       </c>
       <c r="AL103">
-        <v>271897.1817</v>
+        <v>580263.867151491</v>
       </c>
       <c r="AM103">
-        <v>271897.1817</v>
+        <v>600606.612740122</v>
       </c>
       <c r="AN103">
-        <v>271897.1817</v>
+        <v>621662.529217912</v>
       </c>
       <c r="AO103">
-        <v>271897.1817</v>
+        <v>643456.618751601</v>
       </c>
       <c r="AP103">
-        <v>271897.1817</v>
+        <v>666014.76002764</v>
       </c>
       <c r="AQ103">
-        <v>271897.1817</v>
+        <v>689363.738980999</v>
       </c>
       <c r="AR103">
-        <v>271897.1817</v>
+        <v>713531.28060126</v>
       </c>
       <c r="AS103">
-        <v>271897.1817</v>
+        <v>738546.081853758</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13455,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>104605.1465</v>
+        <v>82249.41559415001</v>
       </c>
       <c r="K104">
-        <v>104605.1465</v>
+        <v>91605.9155649208</v>
       </c>
       <c r="L104">
-        <v>104605.1465</v>
+        <v>89241.8062948236</v>
       </c>
       <c r="M104">
-        <v>104605.1465</v>
+        <v>95008.734448662</v>
       </c>
       <c r="N104">
-        <v>104605.1465</v>
+        <v>97151.3442873255</v>
       </c>
       <c r="O104">
-        <v>104605.1465</v>
+        <v>104605.146480966</v>
       </c>
       <c r="P104">
-        <v>104605.1465</v>
+        <v>104605.1</v>
       </c>
       <c r="Q104">
-        <v>104605.1465</v>
+        <v>110163.286695482</v>
       </c>
       <c r="R104">
-        <v>104605.1465</v>
+        <v>116016.807359784</v>
       </c>
       <c r="S104">
-        <v>104605.1465</v>
+        <v>122181.354548396</v>
       </c>
       <c r="T104">
-        <v>104605.1465</v>
+        <v>128673.454639948</v>
       </c>
       <c r="U104">
-        <v>104605.1465</v>
+        <v>135510.512141365</v>
       </c>
       <c r="V104">
-        <v>104605.1465</v>
+        <v>142710.856347165</v>
       </c>
       <c r="W104">
-        <v>104605.1465</v>
+        <v>150293.790478002</v>
       </c>
       <c r="X104">
-        <v>104605.1465</v>
+        <v>158279.643430185</v>
       </c>
       <c r="Y104">
-        <v>104605.1465</v>
+        <v>166689.824274898</v>
       </c>
       <c r="Z104">
-        <v>104605.1465</v>
+        <v>175546.879653239</v>
       </c>
       <c r="AA104">
-        <v>104605.1465</v>
+        <v>184874.554220942</v>
       </c>
       <c r="AB104">
-        <v>104605.1465</v>
+        <v>194697.854304819</v>
       </c>
       <c r="AC104">
-        <v>104605.1465</v>
+        <v>205043.114941594</v>
       </c>
       <c r="AD104">
-        <v>104605.1465</v>
+        <v>215938.070478834</v>
       </c>
       <c r="AE104">
-        <v>104605.1465</v>
+        <v>227411.928927261</v>
       </c>
       <c r="AF104">
-        <v>104605.1465</v>
+        <v>239495.450263767</v>
       </c>
       <c r="AG104">
-        <v>104605.1465</v>
+        <v>252221.028895063</v>
       </c>
       <c r="AH104">
-        <v>104605.1465</v>
+        <v>265622.780503018</v>
       </c>
       <c r="AI104">
-        <v>104605.1465</v>
+        <v>279736.633504533</v>
       </c>
       <c r="AJ104">
-        <v>104605.1465</v>
+        <v>294600.425371122</v>
       </c>
       <c r="AK104">
-        <v>104605.1465</v>
+        <v>310254.004066436</v>
       </c>
       <c r="AL104">
-        <v>104605.1465</v>
+        <v>326739.334873653</v>
       </c>
       <c r="AM104">
-        <v>104605.1465</v>
+        <v>344100.612899154</v>
       </c>
       <c r="AN104">
-        <v>104605.1465</v>
+        <v>362384.38155406</v>
       </c>
       <c r="AO104">
-        <v>104605.1465</v>
+        <v>381639.657331285</v>
       </c>
       <c r="AP104">
-        <v>104605.1465</v>
+        <v>401918.061212616</v>
       </c>
       <c r="AQ104">
-        <v>104605.1465</v>
+        <v>423273.957058095</v>
       </c>
       <c r="AR104">
-        <v>104605.1465</v>
+        <v>445764.597348714</v>
       </c>
       <c r="AS104">
-        <v>104605.1465</v>
+        <v>469450.276673149</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14309,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>2122.629376</v>
+        <v>1895.23302975242</v>
       </c>
       <c r="K111">
-        <v>2122.629376</v>
+        <v>2021.4667617012</v>
       </c>
       <c r="L111">
-        <v>2122.629376</v>
+        <v>1743.86959689415</v>
       </c>
       <c r="M111">
-        <v>2122.629376</v>
+        <v>1689.20584283519</v>
       </c>
       <c r="N111">
-        <v>2122.629376</v>
+        <v>1716.35186816027</v>
       </c>
       <c r="O111">
-        <v>2122.629376</v>
+        <v>2122.62937577108</v>
       </c>
       <c r="P111">
-        <v>2122.629376</v>
+        <v>2122.629</v>
       </c>
       <c r="Q111">
-        <v>2122.629376</v>
+        <v>2213.78247421412</v>
       </c>
       <c r="R111">
-        <v>2122.629376</v>
+        <v>2308.85041292548</v>
       </c>
       <c r="S111">
-        <v>2122.629376</v>
+        <v>2408.00091759627</v>
       </c>
       <c r="T111">
-        <v>2122.629376</v>
+        <v>2511.40930858202</v>
       </c>
       <c r="U111">
-        <v>2122.629376</v>
+        <v>2619.25843513731</v>
       </c>
       <c r="V111">
-        <v>2122.629376</v>
+        <v>2731.73899873434</v>
       </c>
       <c r="W111">
-        <v>2122.629376</v>
+        <v>2849.04989026595</v>
       </c>
       <c r="X111">
-        <v>2122.629376</v>
+        <v>2971.39854172935</v>
       </c>
       <c r="Y111">
-        <v>2122.629376</v>
+        <v>3099.0012930125</v>
       </c>
       <c r="Z111">
-        <v>2122.629376</v>
+        <v>3232.08377443159</v>
       </c>
       <c r="AA111">
-        <v>2122.629376</v>
+        <v>3370.88130569614</v>
       </c>
       <c r="AB111">
-        <v>2122.629376</v>
+        <v>3515.63931200701</v>
       </c>
       <c r="AC111">
-        <v>2122.629376</v>
+        <v>3666.61375802333</v>
       </c>
       <c r="AD111">
-        <v>2122.629376</v>
+        <v>3824.07160046547</v>
       </c>
       <c r="AE111">
-        <v>2122.629376</v>
+        <v>3988.29126015446</v>
       </c>
       <c r="AF111">
-        <v>2122.629376</v>
+        <v>4159.56311432251</v>
       </c>
       <c r="AG111">
-        <v>2122.629376</v>
+        <v>4338.1900100652</v>
       </c>
       <c r="AH111">
-        <v>2122.629376</v>
+        <v>4524.48779984308</v>
       </c>
       <c r="AI111">
-        <v>2122.629376</v>
+        <v>4718.7858999798</v>
       </c>
       <c r="AJ111">
-        <v>2122.629376</v>
+        <v>4921.42787314409</v>
       </c>
       <c r="AK111">
-        <v>2122.629376</v>
+        <v>5132.77203584577</v>
       </c>
       <c r="AL111">
-        <v>2122.629376</v>
+        <v>5353.1920920197</v>
       </c>
       <c r="AM111">
-        <v>2122.629376</v>
+        <v>5583.07779381835</v>
       </c>
       <c r="AN111">
-        <v>2122.629376</v>
+        <v>5822.83563078102</v>
       </c>
       <c r="AO111">
-        <v>2122.629376</v>
+        <v>6072.88954859872</v>
       </c>
       <c r="AP111">
-        <v>2122.629376</v>
+        <v>6333.68169874526</v>
       </c>
       <c r="AQ111">
-        <v>2122.629376</v>
+        <v>6605.67322030037</v>
       </c>
       <c r="AR111">
-        <v>2122.629376</v>
+        <v>6889.34505534717</v>
       </c>
       <c r="AS111">
-        <v>2122.629376</v>
+        <v>7185.19879938571</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14431,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>137443.9299</v>
+        <v>118898.135334696</v>
       </c>
       <c r="K112">
-        <v>137443.9299</v>
+        <v>123532.867350864</v>
       </c>
       <c r="L112">
-        <v>137443.9299</v>
+        <v>123368.292862608</v>
       </c>
       <c r="M112">
-        <v>137443.9299</v>
+        <v>131057.970202339</v>
       </c>
       <c r="N112">
-        <v>137443.9299</v>
+        <v>150752.125286456</v>
       </c>
       <c r="O112">
-        <v>137443.9299</v>
+        <v>137443.929905998</v>
       </c>
       <c r="P112">
-        <v>137443.9299</v>
+        <v>137443.9</v>
       </c>
       <c r="Q112">
-        <v>137443.9299</v>
+        <v>141225.911112141</v>
       </c>
       <c r="R112">
-        <v>137443.9299</v>
+        <v>145111.990924692</v>
       </c>
       <c r="S112">
-        <v>137443.9299</v>
+        <v>149105.003071335</v>
       </c>
       <c r="T112">
-        <v>137443.9299</v>
+        <v>153207.889983679</v>
       </c>
       <c r="U112">
-        <v>137443.9299</v>
+        <v>157423.675059524</v>
       </c>
       <c r="V112">
-        <v>137443.9299</v>
+        <v>161755.464890787</v>
       </c>
       <c r="W112">
-        <v>137443.9299</v>
+        <v>166206.451552737</v>
       </c>
       <c r="X112">
-        <v>137443.9299</v>
+        <v>170779.91495622</v>
       </c>
       <c r="Y112">
-        <v>137443.9299</v>
+        <v>175479.225264606</v>
       </c>
       <c r="Z112">
-        <v>137443.9299</v>
+        <v>180307.845377253</v>
       </c>
       <c r="AA112">
-        <v>137443.9299</v>
+        <v>185269.333481293</v>
       </c>
       <c r="AB112">
-        <v>137443.9299</v>
+        <v>190367.34567365</v>
       </c>
       <c r="AC112">
-        <v>137443.9299</v>
+        <v>195605.638655197</v>
       </c>
       <c r="AD112">
-        <v>137443.9299</v>
+        <v>200988.072499051</v>
       </c>
       <c r="AE112">
-        <v>137443.9299</v>
+        <v>206518.613495044</v>
       </c>
       <c r="AF112">
-        <v>137443.9299</v>
+        <v>212201.337072461</v>
       </c>
       <c r="AG112">
-        <v>137443.9299</v>
+        <v>218040.430803206</v>
       </c>
       <c r="AH112">
-        <v>137443.9299</v>
+        <v>224040.197487603</v>
       </c>
       <c r="AI112">
-        <v>137443.9299</v>
+        <v>230205.058325111</v>
       </c>
       <c r="AJ112">
-        <v>137443.9299</v>
+        <v>236539.55617228</v>
       </c>
       <c r="AK112">
-        <v>137443.9299</v>
+        <v>243048.358890366</v>
       </c>
       <c r="AL112">
-        <v>137443.9299</v>
+        <v>249736.262785053</v>
       </c>
       <c r="AM112">
-        <v>137443.9299</v>
+        <v>256608.196140826</v>
       </c>
       <c r="AN112">
-        <v>137443.9299</v>
+        <v>263669.222852604</v>
       </c>
       <c r="AO112">
-        <v>137443.9299</v>
+        <v>270924.546157298</v>
       </c>
       <c r="AP112">
-        <v>137443.9299</v>
+        <v>278379.512468051</v>
       </c>
       <c r="AQ112">
-        <v>137443.9299</v>
+        <v>286039.615313986</v>
       </c>
       <c r="AR112">
-        <v>137443.9299</v>
+        <v>293910.499388361</v>
       </c>
       <c r="AS112">
-        <v>137443.9299</v>
+        <v>301997.964708114</v>
       </c>
     </row>
     <row r="113" spans="1:45">
